--- a/Output/Avril_2004 Avril 2004 OS DTIC parameters.xlsx
+++ b/Output/Avril_2004 Avril 2004 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.39500202175584</v>
+        <v>-2.33006830871177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10812372759168</v>
+        <v>0.10533870155035</v>
       </c>
       <c r="D2" t="n">
         <v>720.053275125346</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103772517733394</v>
+        <v>0.105924771630349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0769739957034721</v>
+        <v>0.0881247958125287</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.03645638169679</v>
+        <v>1.97970353858253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.152717764270313</v>
+        <v>0.145690465580844</v>
       </c>
       <c r="D2" t="n">
         <v>690.932864450184</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.12190166059483</v>
+        <v>-1.12832256940951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0867906653867666</v>
+        <v>0.103194604784936</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.777951348557</v>
+        <v>-1.72519678835276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0825379900743899</v>
+        <v>0.0869111420140341</v>
       </c>
       <c r="D2" t="n">
         <v>689.58975025911</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.97995936195322</v>
+        <v>1.99546287416998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.170398111443839</v>
+        <v>0.204557243415721</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.08140174659871</v>
+        <v>-2.01765690253255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101464536652</v>
+        <v>0.103447449067094</v>
       </c>
       <c r="D2" t="n">
         <v>719.027229247776</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0180406304756775</v>
+        <v>-0.0190740131440861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.012319060510442</v>
+        <v>0.0138713780231997</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0116907404683198</v>
+        <v>0.0110962420443137</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00402251489432989</v>
+        <v>-0.00350576567788289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00402251489432989</v>
+        <v>-0.00350576567788289</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00592499601455814</v>
+        <v>0.00776597963699988</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0233227155237229</v>
+        <v>0.0212257117611632</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0107506639965146</v>
+        <v>-0.0124958410297487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0107506639965146</v>
+        <v>-0.0124958410297487</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00753261959827769</v>
+        <v>0.0106491264567192</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00681251980552008</v>
+        <v>0.00755354660618361</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00435767837685548</v>
+        <v>0.00949575258569563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00435767837685548</v>
+        <v>0.00949575258569563</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029035516383627</v>
+        <v>0.0418436658338387</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0102950521980051</v>
+        <v>0.0107013747184891</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000601428257233394</v>
+        <v>-0.00050452431854454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000601428257233394</v>
+        <v>-0.00050452431854454</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000151759251859932</v>
+        <v>0.000192415128262507</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Avril_2004 Avril 2004 OS DTIC parameters.xlsx
+++ b/Output/Avril_2004 Avril 2004 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.33006830871177</v>
+        <v>-2.39500202175584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10533870155035</v>
+        <v>0.10812372759168</v>
       </c>
       <c r="D2" t="n">
         <v>720.053275125346</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.105924771630349</v>
+        <v>0.103772517733394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0881247958125287</v>
+        <v>0.0769739957034721</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.97970353858253</v>
+        <v>2.03645638169679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145690465580844</v>
+        <v>0.152717764270313</v>
       </c>
       <c r="D2" t="n">
         <v>690.932864450184</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.12832256940951</v>
+        <v>-1.12190166059483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103194604784936</v>
+        <v>0.0867906653867666</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.72519678835276</v>
+        <v>-1.777951348557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0869111420140341</v>
+        <v>0.0825379900743899</v>
       </c>
       <c r="D2" t="n">
         <v>689.58975025911</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.99546287416998</v>
+        <v>0.679424176932772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204557243415721</v>
+        <v>0.0853173482110215</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.01765690253255</v>
+        <v>-2.08140174659871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103447449067094</v>
+        <v>0.101464536652</v>
       </c>
       <c r="D2" t="n">
         <v>719.027229247776</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0190740131440861</v>
+        <v>-0.0180406304756775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0138713780231997</v>
+        <v>0.012319060510442</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0110962420443137</v>
+        <v>0.0116907404683198</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00350576567788289</v>
+        <v>-0.00402251489432989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00350576567788289</v>
+        <v>-0.00402251489432989</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00776597963699988</v>
+        <v>0.00592499601455814</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0212257117611632</v>
+        <v>0.0233227155237229</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0124958410297487</v>
+        <v>-0.0107506639965146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0124958410297487</v>
+        <v>-0.0107506639965146</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0106491264567192</v>
+        <v>0.00753261959827769</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00755354660618361</v>
+        <v>0.00681251980552008</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00949575258569563</v>
+        <v>0.00220984086502586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00949575258569563</v>
+        <v>0.00220984086502586</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0418436658338387</v>
+        <v>0.00727904990576069</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0107013747184891</v>
+        <v>0.0102950521980051</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00050452431854454</v>
+        <v>-0.000601428257233394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00050452431854454</v>
+        <v>-0.000601428257233394</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000192415128262507</v>
+        <v>0.000151759251859932</v>
       </c>
     </row>
   </sheetData>
